--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A8BA73-A076-4E9D-B49C-1FE21C3CB039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD7B0A-82A5-45AD-BF6C-620C2DDD44D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -619,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -746,17 +755,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -806,17 +806,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +832,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1164,24 +1180,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -1231,15 +1247,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="34"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,7 +1278,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="37" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3"/>
@@ -1352,7 +1368,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="5"/>
@@ -1363,7 +1379,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="5"/>
@@ -1412,11 +1428,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,60 +1503,60 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="68" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1995,12 +2011,17 @@
       <c r="H55" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jATwgr4/yCCM75LAzy89bSTnAUVTmKuHPFY9IqBckM0KUp8oZ/PYpt9KxWCmCYzEwx62oUTq882QAAwOEezmqQ==" saltValue="7eIywzEFd2AnIomcgdBpPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bQTsNns6epr/0UxAnbGxFwav702lEXMmZqntdcp1k+ZEivQABrhRbDdLCgF61GjTODmpoy1T7WY0SYXkkn7jmQ==" saltValue="6iyw0yZUINpipe5ERjSryA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:H55">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{E3AFAE8F-340F-4AEB-9302-5529277A0D7A}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD7B0A-82A5-45AD-BF6C-620C2DDD44D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38CC67-550E-42E1-A9E6-500A70B65E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -758,6 +758,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -804,27 +825,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,24 +1180,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -1247,15 +1247,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="34"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,11 +1428,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1503,60 +1503,60 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2011,13 +2011,13 @@
       <c r="H55" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bQTsNns6epr/0UxAnbGxFwav702lEXMmZqntdcp1k+ZEivQABrhRbDdLCgF61GjTODmpoy1T7WY0SYXkkn7jmQ==" saltValue="6iyw0yZUINpipe5ERjSryA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DFw7S0Z+jnsiLLFL/0DFd9N6tohQqJjAO2uvMqDdyKey+ocBWJn9kNCImB6vGkk5IuxH1RwoAkSA9D3qnqA3Qw==" saltValue="g2CoM840SFt4dWK3QRA9vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:H55">
+  <conditionalFormatting sqref="B6:H1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B6=""</formula>
     </cfRule>

--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38CC67-550E-42E1-A9E6-500A70B65E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D478283E-5255-4CFA-9175-95134734F3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Position at 12:00 GMT</t>
-  </si>
-  <si>
     <t>Original data</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>3-BU-multiple</t>
+  </si>
+  <si>
+    <t>Buoy position</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="43" t="s">
@@ -1530,10 +1530,10 @@
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
       <c r="F4" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="68"/>
     </row>
@@ -1551,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>25</v>
@@ -2011,7 +2011,7 @@
       <c r="H55" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DFw7S0Z+jnsiLLFL/0DFd9N6tohQqJjAO2uvMqDdyKey+ocBWJn9kNCImB6vGkk5IuxH1RwoAkSA9D3qnqA3Qw==" saltValue="g2CoM840SFt4dWK3QRA9vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lh0RyzXA4zLC5+CQ2xOwdPLh7mRqxC6gSPscJEP1kN7SPup/7c9fnkNt5Xe9aPIxf6M7YRQDdeyqEGWaQvF9gg==" saltValue="79bI4YlCKRmHKHcmEF6D5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="G4:H4"/>

--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D478283E-5255-4CFA-9175-95134734F3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29369E23-2065-47D8-A3BF-FEBAAA0D45CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -1164,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29369E23-2065-47D8-A3BF-FEBAAA0D45CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C02D5-1529-497F-B869-46B0E5481A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>Buoy position</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1202,17 +1202,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="47"/>
     </row>
@@ -1228,7 +1228,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="34"/>
       <c r="C6" s="40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -1253,7 +1253,7 @@
       <c r="D8" s="60"/>
       <c r="E8" s="37"/>
       <c r="F8" s="60" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="33"/>
@@ -1274,12 +1274,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="35" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>3</v>
+      <c r="F10" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="33"/>
@@ -1296,7 +1296,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="35" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="37"/>
@@ -1307,7 +1307,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="37"/>
@@ -1336,7 +1336,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="34"/>
       <c r="C16" s="40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -1356,12 +1356,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
       <c r="C18" s="35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="37"/>
       <c r="F18" s="35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="33"/>
@@ -1369,7 +1369,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
       <c r="C19" s="49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="37"/>
@@ -1380,7 +1380,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
       <c r="C20" s="49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="37"/>
@@ -1409,7 +1409,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="34"/>
       <c r="C23" s="40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -1449,7 +1449,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JkoCqIopDRGPJkGbObSKDXdEInfVg6O4tgX+5GyNVgViP8UvKWq+txKkF/jsPi+D9U7cuT6uNl5VmFrP1HsFWg==" saltValue="kUpWCVkz4tJR/x7OYztatQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hq/yQKlGx6ip8A3TsCbAsTKy2aL1/hRM43Ae+hA27SzHGHP/XNGXPM2TOBMFBcJHfIojk19p85UmdbKEm7JgTg==" saltValue="wC/PMUYNm9J9vtoFbX2/iQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1524,40 +1524,40 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
       <c r="F4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">

--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C02D5-1529-497F-B869-46B0E5481A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDF0C4-2B6F-4763-BB57-2AEC7E0B8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -827,6 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1165,7 +1166,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1279,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="72" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3"/>
@@ -1449,7 +1450,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hq/yQKlGx6ip8A3TsCbAsTKy2aL1/hRM43Ae+hA27SzHGHP/XNGXPM2TOBMFBcJHfIojk19p85UmdbKEm7JgTg==" saltValue="wC/PMUYNm9J9vtoFbX2/iQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SpWq+d66E3MAa+zsORnEi9fLnqJEqWJWECDg8LW89ejd3dRlgGvHPLZ1RBo13CrieS+7hZ8XgK/kN6QmbKPBbw==" saltValue="eHhCYCc4FFd22hTfoQCJAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-3BU-multiple.xlsx
+++ b/forms/Form-3BU-multiple.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDF0C4-2B6F-4763-BB57-2AEC7E0B8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76815D-0069-44DA-9FE9-F7997E12F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -827,7 +827,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1166,7 +1165,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1278,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="37" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3"/>
